--- a/Dados/Tabelas.xlsx
+++ b/Dados/Tabelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\TCCLJ\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jéssica\Documents\Jéssica\TCCLJ\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5BEAAF8-3998-4908-922D-B5E250A27684}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEEC3D-A7AA-4F83-9C45-68D1A5CAB52E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2ED98FA3-0AC2-434E-9F5E-B5CCE7327BF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{2ED98FA3-0AC2-434E-9F5E-B5CCE7327BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,109 +399,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,7 +525,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -789,437 +821,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32968AB-03BB-422B-98CC-236A9933C3B8}">
-  <dimension ref="B1:O15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K14" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="15" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="4">
         <v>99</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="4">
         <v>97</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="23">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="24">
         <v>900</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="25">
         <v>9.8987999999999996</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="23">
         <v>899.6277</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="26">
         <v>3.3312066358908701E-3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="25">
         <v>9.0012000000000008</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="23">
         <v>900.55179999999996</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="27">
         <v>3.03268291781291E-3</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="4">
         <v>94</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="4">
         <v>94</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="23">
         <v>830.66669999999999</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="24">
         <v>900</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="25">
         <v>816.51760000000002</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="23">
         <v>891.36369999999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="26">
         <v>5.5745109495379704E-3</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="25">
         <v>815.70429999999999</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="23">
         <v>895.03039999999999</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="27">
         <v>5.30196338502584E-3</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="4">
         <v>96</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="4">
         <v>98</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="5">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="23">
         <v>1661.3333</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="28">
         <v>900</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="29">
         <v>1646.1478999999999</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="23">
         <v>899.99609999999996</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="26">
         <v>5.10667622380919E-3</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="25">
         <v>1640.6636000000001</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="23">
         <v>900.05089999999996</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="27">
         <v>6.9510043927504001E-3</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="4">
         <v>92</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="4">
         <v>90</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="22">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="23">
         <v>415.33330000000001</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="28">
         <v>2130</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="29">
         <v>417.22649999999999</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="23">
         <v>2135.6518000000001</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="26">
         <v>2.0044334575002802E-3</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="25">
         <v>415.95319999999998</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="23">
         <v>2131.4794999999999</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="27">
         <v>5.3944668496614301E-4</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="6">
         <v>95</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="6">
         <v>95</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="23">
         <v>1246</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="28">
         <v>2130</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="29">
         <v>1253.5171</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="23">
         <v>2141.0958999999998</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="26">
         <v>4.5070919418058897E-3</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="25">
         <v>1252.8352</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="23">
         <v>2131.4486000000002</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="27">
         <v>2.3496536397656499E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="22">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="23">
         <v>2076.6667000000002</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="28">
         <v>2130</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="29">
         <v>2066.8071</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="23">
         <v>2158.9819000000002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="26">
         <v>1.0294836737275E-2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="25">
         <v>2068.0882999999999</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="23">
         <v>2154.6513</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="27">
         <v>8.7775532047777403E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="22">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="23">
         <v>1246</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="28">
         <v>-245</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="29">
         <v>1184.7843</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="23">
         <v>-494.9</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="26">
         <v>8.0762843412340607E-2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="25">
         <v>1251.2679000000001</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="23">
         <v>-204.50409999999999</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="27">
         <v>1.3666783984129899E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="22">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="23">
         <v>2492</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="28">
         <v>-245</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="29">
         <v>104.37649999999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="23">
         <v>-494.9</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="26">
         <v>8.0800698778519503E-2</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="25">
         <v>1.4318</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="23">
         <v>-249.1156</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="27">
         <v>1.41379413991948E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="22">
         <v>9</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="23">
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="28">
         <v>2945</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="29">
         <v>161.41900000000001</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="23">
         <v>3194.9</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="26">
         <v>8.0880000516265704E-2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="25">
         <v>2492.7642000000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="23">
         <v>2939.7136</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="27">
         <v>1.7846597901926601E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="30">
         <v>10</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="31">
         <v>1246</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="32">
         <v>2945</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="33">
         <v>1149.2476999999999</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="31">
         <v>3194.9</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="34">
         <v>8.0792602363919802E-2</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="35">
         <v>1235.4789000000001</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="31">
         <v>2913.0560999999998</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="36">
         <v>1.0978452554624299E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -1241,5 +1323,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>